--- a/04_memo/map06.xlsx
+++ b/04_memo/map06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2259B0-D98F-4AF2-BEE6-8025C9E6F28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFB5F4F-829B-4CB4-B864-AA96CC174A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>7</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16" s="3">
         <v>1</v>

--- a/04_memo/map06.xlsx
+++ b/04_memo/map06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFB5F4F-829B-4CB4-B864-AA96CC174A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4E83E-4FBF-4C15-9F59-A14CF47F31BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>

--- a/04_memo/map06.xlsx
+++ b/04_memo/map06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4E83E-4FBF-4C15-9F59-A14CF47F31BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05495A2C-73C6-4503-99B4-5DE6967E82AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -724,7 +724,714 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="169">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1670,7 +2377,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1769,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -1807,13 +2514,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1837,13 +2544,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -1882,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1894,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -1912,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1942,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1963,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1996,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -2023,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2053,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="R8" s="5">
+        <v>11</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -2080,7 +2787,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2094,14 +2801,14 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
+      <c r="F9" s="5">
+        <v>11</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
+      <c r="H9" s="5">
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2113,49 +2820,49 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>11</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2166,14 +2873,14 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
+      <c r="F10" s="5">
+        <v>11</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
+      <c r="H10" s="5">
+        <v>11</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2197,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-      <c r="R10" s="4">
-        <v>0</v>
+      <c r="R10" s="5">
+        <v>11</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
@@ -2215,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1"/>
     </row>
@@ -2233,19 +2940,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>7</v>
+      <c r="H11" s="5">
+        <v>11</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2268,20 +2975,20 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
-        <v>7</v>
+      <c r="P11" s="5">
+        <v>11</v>
       </c>
       <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
         <v>2</v>
       </c>
+      <c r="R11" s="5">
+        <v>11</v>
+      </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
@@ -2296,7 +3003,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2310,14 +3017,14 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
+      <c r="F12" s="5">
+        <v>11</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2340,14 +3047,14 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="4">
-        <v>0</v>
+      <c r="P12" s="5">
+        <v>11</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
+      <c r="R12" s="5">
+        <v>11</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
@@ -2382,14 +3089,14 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
+      <c r="F13" s="5">
+        <v>11</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2398,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -2412,14 +3119,14 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
+      <c r="P13" s="5">
+        <v>11</v>
       </c>
       <c r="Q13" s="5">
         <v>1</v>
       </c>
-      <c r="R13" s="4">
-        <v>0</v>
+      <c r="R13" s="5">
+        <v>11</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -2454,14 +3161,14 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
+      <c r="F14" s="5">
+        <v>11</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2484,14 +3191,14 @@
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
+      <c r="P14" s="5">
+        <v>11</v>
       </c>
       <c r="Q14" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
@@ -2518,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -2536,25 +3243,25 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -2572,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
@@ -2602,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2614,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -2632,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2671,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2701,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
@@ -2746,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2809,7 +3516,294 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
+  <conditionalFormatting sqref="M4:T4 M6:T7 Q5:T5 A15:K16 A18:K18 A17:E17 V4:W10 A12:E14 I12:K14 G12:G13 M8:O10 Q9:Q10 S8:T10">
+    <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L4 A6:L7 A5:F5 A8:G8 I8:L10 I11:K11 A9:E11 G9:G11">
+    <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:T16 L18:W18 S17:T17 V11:W17 L11:O14 R14:T14 Q11:Q13 S11:T13">
+    <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:P5">
+    <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="119" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="126" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="128" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:R17">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U17">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H14">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F14">
     <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2850,7 +3844,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2891,7 +3885,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
+  <conditionalFormatting sqref="P8:P14">
     <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2932,7 +3926,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
+  <conditionalFormatting sqref="R8:R13">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2973,7 +3967,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:R17">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3014,7 +4008,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U17">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map06.xlsx
+++ b/04_memo/map06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05495A2C-73C6-4503-99B4-5DE6967E82AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291880F-8E34-4695-AE3A-5A003273351C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,15 +213,6 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -657,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,9 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,7 +712,4148 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="702">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -2377,7 +6506,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2431,13 +6560,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2455,19 +6584,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -2476,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -2485,101 +6614,101 @@
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1">
@@ -2598,19 +6727,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2627,32 +6756,32 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <v>2</v>
       </c>
-      <c r="U6" s="3">
-        <v>1</v>
+      <c r="U6" s="1">
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2660,38 +6789,38 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
+      <c r="G7" s="1">
+        <v>10</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>9</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <v>1</v>
@@ -2700,16 +6829,16 @@
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -2723,26 +6852,26 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -2751,30 +6880,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>11</v>
-      </c>
-      <c r="R8" s="5">
-        <v>11</v>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1">
@@ -2795,25 +6924,25 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>11</v>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -2825,35 +6954,35 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>11</v>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1"/>
     </row>
@@ -2867,23 +6996,23 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>11</v>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2900,26 +7029,26 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5">
-        <v>11</v>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2</v>
       </c>
       <c r="V10" s="1">
         <v>1</v>
@@ -2931,31 +7060,31 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>11</v>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2973,58 +7102,58 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>2</v>
-      </c>
-      <c r="R11" s="5">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
-      <c r="T11" s="3">
-        <v>10</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1</v>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3045,103 +7174,103 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="5">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="5">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>11</v>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>6</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="5">
-        <v>11</v>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -3150,34 +7279,34 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5">
-        <v>11</v>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -3186,31 +7315,31 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>11</v>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>1</v>
@@ -3219,16 +7348,16 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -3236,38 +7365,38 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
+      <c r="G15" s="1">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>10</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -3275,31 +7404,31 @@
       <c r="S15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>8</v>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1">
@@ -3318,19 +7447,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -3347,34 +7476,34 @@
       <c r="S16" s="1">
         <v>0</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="1">
         <v>2</v>
       </c>
-      <c r="U16" s="3">
-        <v>1</v>
+      <c r="U16" s="1">
+        <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
@@ -3390,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -3399,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -3420,16 +7549,16 @@
         <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -3438,13 +7567,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -3453,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -3462,19 +7591,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -3492,15 +7621,15 @@
         <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
         <v>1</v>
       </c>
       <c r="X18" s="1"/>
@@ -3516,7 +7645,1688 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M4:T4 M6:T7 Q5:T5 A15:K16 A18:K18 A17:E17 V4:W10 A12:E14 I12:K14 G12:G13 M8:O10 Q9:Q10 S8:T10">
+  <conditionalFormatting sqref="M4:N4 R7:T7 R4:T4 R10:S10 M10:N10 A17:C18 T5 H12:K13 A15:C15 E15:F15 E18:K18 A12:C12 E12:F12 H15:K15 K14 M7:M9">
+    <cfRule type="cellIs" dxfId="701" priority="898" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="700" priority="899" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="699" priority="900" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="901" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="697" priority="902" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="696" priority="903" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="695" priority="904" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="905" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="693" priority="906" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="692" priority="907" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="908" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="690" priority="909" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="689" priority="910" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C5 A10:C10 K6:K9 J10:L10 A7:C8 H7:H8 H11:K11 E7:F8 E10:F10 E4:F4 K4 H4">
+    <cfRule type="cellIs" dxfId="688" priority="885" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="687" priority="886" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="887" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="888" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="889" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="683" priority="890" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="891" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="892" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="893" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="679" priority="894" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="895" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="677" priority="896" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="897" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:N12 M18 R12:S12 R18:T18 L11:M11 M13:N15 R14:S15 T17">
+    <cfRule type="cellIs" dxfId="675" priority="872" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="674" priority="873" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="874" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="672" priority="875" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="671" priority="876" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="877" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="669" priority="878" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="668" priority="879" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="880" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="666" priority="881" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="665" priority="882" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="883" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="884" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5 K5">
+    <cfRule type="cellIs" dxfId="662" priority="859" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="860" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="660" priority="861" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="659" priority="862" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="863" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="864" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="865" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="866" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="654" priority="867" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="653" priority="868" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="869" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="651" priority="870" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="650" priority="871" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17 K17">
+    <cfRule type="cellIs" dxfId="649" priority="846" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="847" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="647" priority="848" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="849" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="645" priority="850" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="644" priority="851" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="852" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="853" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="854" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="855" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="856" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="857" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="858" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18 P14:P15">
+    <cfRule type="cellIs" dxfId="636" priority="807" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="635" priority="808" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="809" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="810" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="632" priority="811" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="812" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="630" priority="813" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="814" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="815" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="816" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="626" priority="817" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="818" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="819" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4 O7:P7 O10:P10">
+    <cfRule type="cellIs" dxfId="623" priority="794" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="622" priority="795" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="621" priority="796" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="620" priority="797" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="798" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="618" priority="799" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="617" priority="800" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="801" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="802" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="614" priority="803" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="804" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="612" priority="805" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="806" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:W12 U14:W15 U17:W18">
+    <cfRule type="cellIs" dxfId="610" priority="755" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="609" priority="756" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="608" priority="757" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="758" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="606" priority="759" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="605" priority="760" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="761" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="762" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="763" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="764" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="765" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="599" priority="766" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="767" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:W5 U10:W10 U7:W7">
+    <cfRule type="cellIs" dxfId="597" priority="742" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="596" priority="743" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="744" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="594" priority="745" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="593" priority="746" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="747" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="748" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="749" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="750" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="588" priority="751" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="752" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="753" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="754" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="584" priority="729" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="730" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="731" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="581" priority="732" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="733" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="734" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="578" priority="735" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="736" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="737" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="575" priority="738" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="739" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="740" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="741" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="571" priority="716" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="717" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="718" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="719" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="567" priority="720" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="566" priority="721" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="722" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="723" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="724" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="725" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="726" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="727" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="728" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:P11">
+    <cfRule type="cellIs" dxfId="558" priority="703" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="557" priority="704" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="705" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="706" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="554" priority="707" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="708" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="709" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="710" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="711" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="549" priority="712" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="713" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="714" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="715" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L9">
+    <cfRule type="cellIs" dxfId="545" priority="690" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="691" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="543" priority="692" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="542" priority="693" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="694" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="695" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="696" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="697" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="698" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="699" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="700" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="534" priority="701" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="702" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L15 L17:L18">
+    <cfRule type="cellIs" dxfId="532" priority="677" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="678" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="679" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="680" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="681" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="682" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="683" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="684" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="685" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="686" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="687" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="521" priority="688" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="689" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 A9:F9">
+    <cfRule type="cellIs" dxfId="519" priority="664" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="665" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="666" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="667" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="515" priority="668" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="669" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="670" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="671" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="672" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="673" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="674" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="675" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="676" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6 J7:J8">
+    <cfRule type="cellIs" dxfId="506" priority="651" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="652" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="653" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="503" priority="654" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="655" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="656" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="500" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="659" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="661" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="663" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="493" priority="638" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="639" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="640" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="641" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="642" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="643" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="645" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="646" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="647" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="648" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="482" priority="649" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="650" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="480" priority="625" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="626" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="627" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="628" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="629" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="630" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="631" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="632" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="633" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="634" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="635" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="636" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="637" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13 R13:S13 U13:W13">
+    <cfRule type="cellIs" dxfId="467" priority="612" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="613" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="614" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="615" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="616" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="617" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="619" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="620" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="622" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="624" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5 H5">
+    <cfRule type="cellIs" dxfId="454" priority="586" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="587" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="588" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="589" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="590" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="591" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="592" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="593" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="594" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="595" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="596" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="597" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="598" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:P5 R5:S5">
+    <cfRule type="cellIs" dxfId="441" priority="573" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="574" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="575" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="576" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="577" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="578" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="579" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="580" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="581" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="582" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="583" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="584" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="585" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q5">
+    <cfRule type="cellIs" dxfId="428" priority="560" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="561" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="562" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="425" priority="563" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="564" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="565" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="566" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="567" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="568" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="569" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="570" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="571" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="572" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17 R17:S17">
+    <cfRule type="cellIs" dxfId="415" priority="534" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="535" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="536" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="537" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="538" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="539" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="542" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="544" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="546" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:I17">
+    <cfRule type="cellIs" dxfId="402" priority="521" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="522" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="523" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="524" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="525" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="526" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="529" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="531" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="533" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="389" priority="482" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="483" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="484" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="485" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="486" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="487" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="488" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="489" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="490" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="491" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="492" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="493" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:S11 U11:W11">
+    <cfRule type="cellIs" dxfId="376" priority="417" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="418" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="419" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="420" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="421" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="371" priority="422" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="423" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="424" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="425" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="426" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="427" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="428" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="429" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:Q11">
+    <cfRule type="cellIs" dxfId="363" priority="404" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="405" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="406" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="407" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="408" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="409" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="410" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="411" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="412" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="413" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="414" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="415" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="416" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10:T15">
+    <cfRule type="cellIs" dxfId="350" priority="391" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="392" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="393" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="394" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="395" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="396" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="397" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="398" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="399" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="400" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="401" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="402" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="403" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:M16">
+    <cfRule type="cellIs" dxfId="337" priority="365" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="366" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="367" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="368" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="369" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="370" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="372" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="373" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="374" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="375" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="377" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D17:D18">
+    <cfRule type="cellIs" dxfId="324" priority="326" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="327" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="328" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="329" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="330" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="331" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="334" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="335" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="336" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="337" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="338" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="316" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="317" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="321" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="322" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="325" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:F11">
+    <cfRule type="cellIs" dxfId="298" priority="300" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="303" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="304" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="305" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="307" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="308" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="310" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="312" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D12">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:W16">
+    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:F14 H14:J14">
+    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:P8 R8:W8">
+    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O15 O17:O18">
+    <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="197" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="198" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="199" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="200" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="201" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="203" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="204" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="206" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="208" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:K16">
+    <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="184" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="185" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="186" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="193" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G10">
     <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3557,7 +9367,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A6:L7 A5:F5 A8:G8 I8:L10 I11:K11 A9:E11 G9:G11">
+  <conditionalFormatting sqref="O12:P12">
     <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3598,7 +9408,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:T16 L18:W18 S17:T17 V11:W17 L11:O14 R14:T14 Q11:Q13 S11:T13">
+  <conditionalFormatting sqref="Q12:Q18">
     <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3639,7 +9449,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
+  <conditionalFormatting sqref="M6:W6">
     <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3680,7 +9490,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:R17">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3721,7 +9531,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U17">
+  <conditionalFormatting sqref="A13:G13">
     <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3762,7 +9572,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H14">
+  <conditionalFormatting sqref="H6:J6">
     <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3803,7 +9613,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F14">
+  <conditionalFormatting sqref="J4:J5">
     <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3844,7 +9654,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="Q7:Q8">
     <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3885,7 +9695,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P14">
+  <conditionalFormatting sqref="Q9:W9">
     <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3926,7 +9736,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R13">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -3967,7 +9777,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="N16:P16">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -4008,7 +9818,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="A6:F6">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map06.xlsx
+++ b/04_memo/map06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291880F-8E34-4695-AE3A-5A003273351C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2FF8F-96A3-46D5-B515-D29D5160D7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -6506,7 +6506,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6560,10 +6560,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
         <v>1</v>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4">
         <v>1</v>
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -7336,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -7624,10 +7624,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>1</v>
